--- a/OTRAS_ENG - York/data/teaching-experience.xlsx
+++ b/OTRAS_ENG - York/data/teaching-experience.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD37EBE5-2775-4C4E-A1BF-C7410C7F9212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFA1335-60FA-4D14-A7CE-FC7BA7433331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2250" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -941,7 +941,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OTRAS_ENG - York/data/teaching-experience.xlsx
+++ b/OTRAS_ENG - York/data/teaching-experience.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFA1335-60FA-4D14-A7CE-FC7BA7433331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FE733B-8B00-426B-8C7D-F8467FEB7950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,18 +94,9 @@
     <t>Inferential Statistics - 2015 - 2016</t>
   </si>
   <si>
-    <t>Descriptive Statistics) - 2015 - 2016</t>
-  </si>
-  <si>
-    <t>Animal Behaviour (lecture on vocal communication) - 2012</t>
-  </si>
-  <si>
     <t>Quantitative Methods (Psychology MSc – several lectures, practical supervision, one-on-one teaching) - 2012-2014</t>
   </si>
   <si>
-    <t>Cognition Module (leading research projects in psychoacoustics) - 2012-2014</t>
-  </si>
-  <si>
     <t>Research Lab II - 2010</t>
   </si>
   <si>
@@ -125,6 +116,15 @@
   </si>
   <si>
     <t>Reproducible reseach and statistical modelling in R (open practical seminar) - 2020-Present</t>
+  </si>
+  <si>
+    <t>Cognition Module (Year 3 BSc/BA – leading research projects in psychoacoustics) - 2012-2014</t>
+  </si>
+  <si>
+    <t>Animal Behaviour (Year 3 BSc/BA – lecture on vocal communication) - 2012</t>
+  </si>
+  <si>
+    <t>Descriptive Statistics - 2015 - 2016</t>
   </si>
 </sst>
 </file>
@@ -938,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +985,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -994,7 +994,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1017,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -1087,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -1134,7 +1134,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1152,7 +1152,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -1161,7 +1161,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1180,7 +1180,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1199,7 +1199,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1212,7 +1212,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1226,18 +1226,8 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1245,7 +1235,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1258,6 +1248,18 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
